--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
         <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
@@ -691,40 +691,40 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
         <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
         <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
         <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
         <v>17</v>
@@ -772,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="H4" t="n">
-        <v>2.72</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1078,16 +1078,16 @@
         <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
         <v>1.87</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.1</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -673,19 +673,19 @@
         <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I2" t="n">
         <v>2.34</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -721,55 +721,55 @@
         <v>1.42</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG2" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AH2" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC2" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>18</v>
-      </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO2" t="n">
         <v>15.5</v>
@@ -805,7 +805,7 @@
         <v>1.89</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="Q4" t="n">
         <v>1.43</v>
@@ -1081,10 +1081,10 @@
         <v>4.4</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.8</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="G6" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
         <v>2.12</v>
@@ -1345,7 +1345,7 @@
         <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H7" t="n">
         <v>6.6</v>
@@ -1354,7 +1354,7 @@
         <v>8.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q7" t="n">
         <v>2.18</v>
@@ -1489,10 +1489,10 @@
         <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>2.24</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -670,16 +670,16 @@
         <v>3.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.28</v>
       </c>
       <c r="I2" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
@@ -688,52 +688,52 @@
         <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
         <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.4</v>
@@ -751,7 +751,7 @@
         <v>14.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
         <v>34</v>
@@ -766,13 +766,13 @@
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +811,7 @@
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -1105,7 +1105,7 @@
         <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="G6" t="n">
-        <v>2.72</v>
+        <v>2.34</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="G7" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
         <v>2.94</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.75</v>
@@ -1624,7 +1624,7 @@
         <v>5.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>5.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -685,34 +685,34 @@
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
         <v>1.76</v>
@@ -721,16 +721,16 @@
         <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>15.5</v>
@@ -772,7 +772,7 @@
         <v>32</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>1.99</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1.38</v>
       </c>
       <c r="G4" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -1075,10 +1075,10 @@
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
         <v>7.2</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -682,7 +682,7 @@
         <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
@@ -706,10 +706,10 @@
         <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
         <v>2.32</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G9" t="n">
         <v>2.2</v>
@@ -1627,7 +1627,7 @@
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -808,7 +808,7 @@
         <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>5.2</v>
@@ -835,7 +835,7 @@
         <v>1.99</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -1063,49 +1063,49 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.7</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.94</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1198,32 +1198,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G6" t="n">
         <v>2.08</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.34</v>
-      </c>
       <c r="H6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.55</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -817,97 +817,97 @@
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
         <v>1.99</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -955,94 +955,94 @@
         <v>6.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
         <v>2.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
         <v>2.34</v>
@@ -1087,19 +1087,19 @@
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
         <v>1.7</v>
@@ -1108,76 +1108,76 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1210,109 +1210,109 @@
         <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1351,103 +1351,103 @@
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
@@ -700,7 +700,7 @@
         <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
@@ -709,10 +709,10 @@
         <v>2.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V2" t="n">
         <v>1.76</v>
@@ -769,10 +769,10 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>1.89</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -814,7 +814,7 @@
         <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -826,7 +826,7 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.99</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -841,7 +841,7 @@
         <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -853,7 +853,7 @@
         <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X3" t="n">
         <v>24</v>
@@ -976,7 +976,7 @@
         <v>1.75</v>
       </c>
       <c r="S4" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="T4" t="n">
         <v>1.66</v>
@@ -994,10 +994,10 @@
         <v>42</v>
       </c>
       <c r="Y4" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
         <v>250</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1123,52 +1123,52 @@
         <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1210,10 +1210,10 @@
         <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
@@ -1231,10 +1231,10 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
         <v>1.61</v>
@@ -1243,10 +1243,10 @@
         <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.18</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1258,10 +1258,10 @@
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1345,10 +1345,10 @@
         <v>1.7</v>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I7" t="n">
         <v>7.4</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1393,16 +1393,16 @@
         <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,10 +1411,10 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1426,19 +1426,19 @@
         <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
         <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.89</v>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
@@ -1624,100 +1624,100 @@
         <v>5.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.38</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -685,7 +685,7 @@
         <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -697,7 +697,7 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
         <v>1.78</v>
@@ -706,7 +706,7 @@
         <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
         <v>1.68</v>
@@ -814,7 +814,7 @@
         <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -826,7 +826,7 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -979,10 +979,10 @@
         <v>2.06</v>
       </c>
       <c r="T4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
         <v>1.11</v>
@@ -997,7 +997,7 @@
         <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
         <v>250</v>
@@ -1258,7 +1258,7 @@
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1351,7 +1351,7 @@
         <v>4.4</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
@@ -1507,7 +1507,7 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
         <v>2.12</v>
@@ -1519,10 +1519,10 @@
         <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
         <v>1.4</v>
@@ -1555,10 +1555,10 @@
         <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
@@ -1573,7 +1573,7 @@
         <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1615,7 +1615,7 @@
         <v>1.89</v>
       </c>
       <c r="G9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
@@ -1636,16 +1636,16 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="O9" t="n">
         <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.38</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
@@ -1663,7 +1663,7 @@
         <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -697,22 +697,22 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V2" t="n">
         <v>1.76</v>
@@ -826,7 +826,7 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -994,10 +994,10 @@
         <v>42</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
         <v>250</v>
@@ -1075,7 +1075,7 @@
         <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H5" t="n">
         <v>3.35</v>
@@ -1084,7 +1084,7 @@
         <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1123,7 +1123,7 @@
         <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
@@ -1240,7 +1240,7 @@
         <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
@@ -1258,7 +1258,7 @@
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1348,7 +1348,7 @@
         <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
         <v>6.2</v>
@@ -1363,10 +1363,10 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
@@ -1378,16 +1378,16 @@
         <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
         <v>1.19</v>
@@ -1402,7 +1402,7 @@
         <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
@@ -1519,7 +1519,7 @@
         <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
         <v>1.86</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
         <v>2.14</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="O9" t="n">
         <v>1.38</v>
@@ -1645,7 +1645,7 @@
         <v>1.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
@@ -1660,7 +1660,7 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
         <v>1.87</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -685,7 +685,7 @@
         <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -703,7 +703,7 @@
         <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
         <v>3.05</v>
@@ -814,7 +814,7 @@
         <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -856,7 +856,7 @@
         <v>1.94</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>24</v>
@@ -892,7 +892,7 @@
         <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
         <v>30</v>
@@ -994,7 +994,7 @@
         <v>42</v>
       </c>
       <c r="Y4" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
         <v>80</v>
@@ -1093,10 +1093,10 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="O5" t="n">
         <v>1.42</v>
@@ -1108,16 +1108,16 @@
         <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
         <v>1.34</v>
@@ -1126,55 +1126,55 @@
         <v>1.68</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>16</v>
-      </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G6" t="n">
         <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1225,43 +1225,43 @@
         <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.62</v>
+        <v>2.78</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P6" t="n">
         <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
         <v>2.04</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1297,10 +1297,10 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1354,7 +1354,7 @@
         <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>4.3</v>
@@ -1399,7 +1399,7 @@
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1495,13 +1495,13 @@
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.39</v>
@@ -1510,79 +1510,79 @@
         <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
         <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1636,16 +1636,16 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="O9" t="n">
         <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.38</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
@@ -814,7 +814,7 @@
         <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -835,7 +835,7 @@
         <v>1.99</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
         <v>1.16</v>
@@ -874,19 +874,19 @@
         <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
         <v>75</v>
       </c>
       <c r="AF3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
         <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
         <v>85</v>
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>6.4</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1096,85 +1096,85 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
         <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB5" t="n">
         <v>13</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH5" t="n">
         <v>28</v>
       </c>
-      <c r="AA5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL5" t="n">
         <v>980</v>
       </c>
-      <c r="AK5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>50</v>
-      </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
         <v>1.95</v>
@@ -1216,7 +1216,7 @@
         <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1252,10 +1252,10 @@
         <v>2.06</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
         <v>2.04</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>4.3</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1387,13 +1387,13 @@
         <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
         <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
         <v>980</v>
@@ -1480,10 +1480,10 @@
         <v>2.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
         <v>3.5</v>
@@ -1492,16 +1492,16 @@
         <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
         <v>1.39</v>
@@ -1510,10 +1510,10 @@
         <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
         <v>3.95</v>
@@ -1522,64 +1522,64 @@
         <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
         <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
         <v>70</v>
       </c>
-      <c r="AB8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK8" t="n">
         <v>36</v>
       </c>
-      <c r="AK8" t="n">
-        <v>30</v>
-      </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO8" t="n">
         <v>60</v>
@@ -1615,13 +1615,13 @@
         <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
@@ -1636,16 +1636,16 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R9" t="n">
         <v>1.24</v>
@@ -1663,7 +1663,7 @@
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -706,7 +706,7 @@
         <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
         <v>1.69</v>
@@ -805,16 +805,16 @@
         <v>1.89</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -832,7 +832,7 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" t="n">
         <v>1.83</v>
@@ -853,7 +853,7 @@
         <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>50</v>
@@ -967,7 +967,7 @@
         <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q4" t="n">
         <v>1.44</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
         <v>2.38</v>
@@ -1081,19 +1081,19 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>3.2</v>
@@ -1102,19 +1102,19 @@
         <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
         <v>1.97</v>
@@ -1126,46 +1126,46 @@
         <v>1.72</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH5" t="n">
         <v>20</v>
       </c>
-      <c r="AG5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>28</v>
-      </c>
       <c r="AI5" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>980</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,55 +1207,55 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
         <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
         <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
         <v>2.04</v>
@@ -1276,7 +1276,7 @@
         <v>8.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
@@ -1354,16 +1354,16 @@
         <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>3.65</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1384,19 +1384,19 @@
         <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
         <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
         <v>2.52</v>
@@ -1486,7 +1486,7 @@
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
         <v>3.3</v>
@@ -1495,7 +1495,7 @@
         <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
@@ -1507,10 +1507,10 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
@@ -1522,7 +1522,7 @@
         <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>1.4</v>
@@ -1540,7 +1540,7 @@
         <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
         <v>11</v>
@@ -1567,7 +1567,7 @@
         <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
         <v>36</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
         <v>5.5</v>
@@ -1633,10 +1633,10 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1648,22 +1648,22 @@
         <v>1.94</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1693,7 +1693,7 @@
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
@@ -715,10 +715,10 @@
         <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -766,10 +766,10 @@
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="G3" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.99</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -835,79 +835,79 @@
         <v>1.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="X3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>21</v>
       </c>
-      <c r="Y3" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>24</v>
-      </c>
       <c r="AE3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK3" t="n">
         <v>25</v>
       </c>
-      <c r="AI3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,25 +961,25 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -988,10 +988,10 @@
         <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="n">
         <v>980</v>
@@ -1000,13 +1000,13 @@
         <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD4" t="n">
         <v>36</v>
@@ -1015,10 +1015,10 @@
         <v>110</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1027,7 +1027,7 @@
         <v>90</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1042,7 +1042,7 @@
         <v>5.3</v>
       </c>
       <c r="AO4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1096,13 +1096,13 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
         <v>2.02</v>
@@ -1120,10 +1120,10 @@
         <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
         <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1285,22 +1285,22 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>1.76</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1423,7 +1423,7 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="G8" t="n">
         <v>2.52</v>
@@ -1486,13 +1486,13 @@
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J8" t="n">
         <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1507,10 +1507,10 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1645,13 +1645,13 @@
         <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T9" t="n">
         <v>1.87</v>
@@ -1660,10 +1660,10 @@
         <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
         <v>3.4</v>
@@ -676,13 +676,13 @@
         <v>2.24</v>
       </c>
       <c r="I2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
@@ -697,7 +697,7 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
         <v>1.82</v>
@@ -715,13 +715,13 @@
         <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W2" t="n">
         <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -766,7 +766,7 @@
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>30</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.96</v>
+        <v>1.07</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>1.76</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.04</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.09</v>
       </c>
       <c r="S3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W3" t="n">
         <v>3.1</v>
       </c>
-      <c r="T3" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.96</v>
-      </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.41</v>
+        <v>1.96</v>
       </c>
       <c r="G4" t="n">
-        <v>1.49</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>9.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>6.2</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>2.78</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.45</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.12</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="n">
         <v>40</v>
       </c>
-      <c r="Y4" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>80</v>
-      </c>
       <c r="AA4" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
         <v>16</v>
       </c>
-      <c r="AD4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AO4" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.74</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB5" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK5" t="n">
         <v>17</v>
       </c>
-      <c r="AE5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>27</v>
-      </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>5.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,78 +1193,78 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K6" t="n">
         <v>5.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>1.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>3.85</v>
+        <v>2.44</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,19 +1285,19 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1333,109 +1333,109 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.76</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.9</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.35</v>
       </c>
-      <c r="S7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.18</v>
-      </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.55</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
         <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,125 +1598,395 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.08</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N11" t="n">
         <v>3.25</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O11" t="n">
         <v>1.36</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P11" t="n">
         <v>1.76</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q11" t="n">
         <v>2.06</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R11" t="n">
         <v>1.29</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S11" t="n">
         <v>3.8</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T11" t="n">
         <v>1.87</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U11" t="n">
         <v>1.9</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V11" t="n">
         <v>1.27</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W11" t="n">
         <v>1.96</v>
       </c>
-      <c r="X9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC11" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AD11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG11" t="n">
         <v>13</v>
       </c>
-      <c r="AH9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AH11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.35</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.4</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
@@ -697,10 +697,10 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
@@ -715,13 +715,13 @@
         <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -739,7 +739,7 @@
         <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -769,7 +769,7 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="G3" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I3" t="n">
         <v>18</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="O3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.04</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.05</v>
       </c>
       <c r="W3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -952,10 +952,10 @@
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -991,10 +991,10 @@
         <v>1.96</v>
       </c>
       <c r="X4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>20</v>
       </c>
       <c r="Z4" t="n">
         <v>40</v>
@@ -1003,28 +1003,28 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
         <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO4" t="n">
         <v>65</v>
@@ -1129,7 +1129,7 @@
         <v>40</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Z5" t="n">
         <v>80</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>1.35</v>
+        <v>2.26</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="P6" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="R6" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S6" t="n">
-        <v>2.44</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
         <v>2.34</v>
@@ -1357,7 +1357,7 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1366,7 +1366,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
         <v>1.35</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="G8" t="n">
         <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
         <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1507,7 +1507,7 @@
         <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
         <v>2.08</v>
@@ -1561,7 +1561,7 @@
         <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1615,7 +1615,7 @@
         <v>1.76</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
         <v>4.7</v>
@@ -1630,37 +1630,37 @@
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.31</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.33</v>
       </c>
       <c r="S9" t="n">
         <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
         <v>2.08</v>
@@ -1684,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G10" t="n">
         <v>2.52</v>
@@ -1798,7 +1798,7 @@
         <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X10" t="n">
         <v>14.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
         <v>2.34</v>
@@ -754,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
         <v>60</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,60 +788,60 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>09:05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.2</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>3.65</v>
       </c>
       <c r="H3" t="n">
-        <v>11.5</v>
+        <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>2.96</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -850,16 +850,16 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.05</v>
+        <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>3.3</v>
+        <v>1.38</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.96</v>
+        <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2.36</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.31</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="Z4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>7</v>
       </c>
-      <c r="I5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3</v>
-      </c>
-      <c r="X5" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AO5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>2.26</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.56</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.52</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="X6" t="n">
-        <v>9.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.16</v>
+        <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>8.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.74</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB7" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>17</v>
       </c>
-      <c r="AE7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>27</v>
-      </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>5.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,79 +1463,79 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>2.28</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>2.54</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="X8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y8" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>18</v>
-      </c>
       <c r="Z8" t="n">
         <v>1000</v>
       </c>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,19 +1555,19 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1603,88 +1603,88 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
         <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
         <v>2.08</v>
       </c>
       <c r="X9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>18</v>
       </c>
-      <c r="Y9" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1693,22 +1693,22 @@
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="G10" t="n">
-        <v>2.52</v>
+        <v>1.92</v>
       </c>
       <c r="H10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.25</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="AE10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,125 +1868,395 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
         <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.29</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S13" t="n">
         <v>3.8</v>
       </c>
-      <c r="T11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="T13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.9</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V13" t="n">
         <v>1.27</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W13" t="n">
         <v>1.96</v>
       </c>
-      <c r="X11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC13" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG11" t="n">
+      <c r="AD13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG13" t="n">
         <v>13</v>
       </c>
-      <c r="AH11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="AH13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.26</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.28</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
@@ -697,7 +697,7 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
         <v>1.81</v>
@@ -709,19 +709,19 @@
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
         <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -730,13 +730,13 @@
         <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
@@ -745,10 +745,10 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>16</v>
@@ -769,7 +769,7 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -805,16 +805,16 @@
         <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H3" t="n">
         <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>7</v>
@@ -835,7 +835,7 @@
         <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
         <v>1.29</v>
@@ -844,16 +844,16 @@
         <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="W3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
         <v>990</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
         <v>3.5</v>
@@ -949,10 +949,10 @@
         <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.31</v>
@@ -970,10 +970,10 @@
         <v>1.77</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
         <v>2.58</v>
@@ -985,7 +985,7 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
         <v>1.4</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>1.11</v>
+        <v>14.5</v>
       </c>
       <c r="I5" t="n">
         <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.3</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="T5" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="U5" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="V5" t="n">
         <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>7.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>60</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G6" t="n">
         <v>2.04</v>
@@ -1219,40 +1219,40 @@
         <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
         <v>1.29</v>
@@ -1261,10 +1261,10 @@
         <v>1.96</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="n">
         <v>40</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1282,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1291,10 +1291,10 @@
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
         <v>28</v>
@@ -1354,7 +1354,7 @@
         <v>8.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
         <v>6.2</v>
@@ -1375,19 +1375,19 @@
         <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R7" t="n">
         <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T7" t="n">
         <v>1.68</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V7" t="n">
         <v>1.13</v>
@@ -1396,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
         <v>38</v>
@@ -1408,7 +1408,7 @@
         <v>240</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
         <v>16</v>
@@ -1420,13 +1420,13 @@
         <v>110</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>90</v>
@@ -1435,10 +1435,10 @@
         <v>14.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
         <v>100</v>
@@ -1477,64 +1477,64 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="G8" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.52</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="O8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="X8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1546,7 +1546,7 @@
         <v>5.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1561,16 +1561,16 @@
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1615,7 +1615,7 @@
         <v>1.78</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>4.6</v>
@@ -1642,7 +1642,7 @@
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
         <v>2.08</v>
@@ -1663,7 +1663,7 @@
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X9" t="n">
         <v>15.5</v>
@@ -1750,16 +1750,16 @@
         <v>1.76</v>
       </c>
       <c r="G10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H10" t="n">
         <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
@@ -1792,13 +1792,13 @@
         <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X10" t="n">
         <v>18</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1912,7 +1912,7 @@
         <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q11" t="n">
         <v>2.02</v>
@@ -1924,7 +1924,7 @@
         <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
         <v>1.97</v>
@@ -1933,7 +1933,7 @@
         <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X11" t="n">
         <v>15.5</v>
@@ -1987,7 +1987,7 @@
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
         <v>2.52</v>
@@ -2032,7 +2032,7 @@
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.46</v>
@@ -2047,10 +2047,10 @@
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2086,19 +2086,19 @@
         <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
         <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
@@ -2113,7 +2113,7 @@
         <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>140</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
         <v>2.04</v>
@@ -2161,10 +2161,10 @@
         <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>3.8</v>
@@ -2191,10 +2191,10 @@
         <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
         <v>1.9</v>
@@ -2206,7 +2206,7 @@
         <v>1.96</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
         <v>9.800000000000001</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
         <v>3.4</v>
@@ -676,31 +676,31 @@
         <v>2.24</v>
       </c>
       <c r="I2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
@@ -712,16 +712,16 @@
         <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
         <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -733,7 +733,7 @@
         <v>30</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>8.6</v>
@@ -745,7 +745,7 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
         <v>13.5</v>
@@ -769,7 +769,7 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>2.96</v>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="I3" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.71</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
         <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="X3" t="n">
         <v>990</v>
       </c>
       <c r="Y3" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>990</v>
       </c>
       <c r="AC3" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>990</v>
@@ -967,10 +967,10 @@
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
         <v>1.27</v>
@@ -1078,10 +1078,10 @@
         <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1090,7 +1090,7 @@
         <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1102,10 +1102,10 @@
         <v>1.34</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
@@ -1117,7 +1117,7 @@
         <v>2.6</v>
       </c>
       <c r="U5" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="V5" t="n">
         <v>1.06</v>
@@ -1129,7 +1129,7 @@
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,22 +1138,22 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>60</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>80</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1258,7 +1258,7 @@
         <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X6" t="n">
         <v>18</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I7" t="n">
         <v>8.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K7" t="n">
         <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1372,10 +1372,10 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
         <v>1.72</v>
@@ -1384,7 +1384,7 @@
         <v>2.14</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
         <v>2.16</v>
@@ -1393,13 +1393,13 @@
         <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X7" t="n">
         <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
         <v>75</v>
@@ -1414,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
         <v>110</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H8" t="n">
         <v>7.4</v>
@@ -1492,7 +1492,7 @@
         <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
         <v>1.52</v>
@@ -1510,7 +1510,7 @@
         <v>1.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R8" t="n">
         <v>1.16</v>
@@ -1525,7 +1525,7 @@
         <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
         <v>2.36</v>
@@ -1555,13 +1555,13 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H9" t="n">
         <v>4.6</v>
@@ -1624,10 +1624,10 @@
         <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1642,7 +1642,7 @@
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
         <v>2.08</v>
@@ -1660,10 +1660,10 @@
         <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
         <v>15.5</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
         <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.33</v>
@@ -1777,10 +1777,10 @@
         <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
         <v>1.31</v>
@@ -1789,19 +1789,19 @@
         <v>3.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
         <v>1.93</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1882,82 +1882,82 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
         <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
         <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -1966,16 +1966,16 @@
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
         <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
         <v>2.52</v>
       </c>
       <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.25</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.46</v>
@@ -2041,13 +2041,13 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
         <v>2.14</v>
@@ -2059,7 +2059,7 @@
         <v>3.95</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2068,7 +2068,7 @@
         <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
         <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
@@ -2182,10 +2182,10 @@
         <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
         <v>1.29</v>
@@ -2197,13 +2197,13 @@
         <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
         <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X13" t="n">
         <v>990</v>
@@ -2221,7 +2221,7 @@
         <v>9.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -691,49 +691,49 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="T2" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>1.41</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
         <v>8.6</v>
@@ -754,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
         <v>60</v>
@@ -763,16 +763,16 @@
         <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -811,37 +811,37 @@
         <v>2.32</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
         <v>1.73</v>
@@ -850,7 +850,7 @@
         <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W3" t="n">
         <v>1.42</v>
@@ -859,7 +859,7 @@
         <v>990</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -979,7 +979,7 @@
         <v>2.58</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
         <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="U5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
         <v>1.06</v>
@@ -1129,7 +1129,7 @@
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1156,25 +1156,25 @@
         <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1222,7 +1222,7 @@
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>1.3</v>
@@ -1240,7 +1240,7 @@
         <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R6" t="n">
         <v>1.41</v>
@@ -1249,16 +1249,16 @@
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
         <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
         <v>18</v>
@@ -1294,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AJ6" t="n">
         <v>28</v>
@@ -1306,7 +1306,7 @@
         <v>42</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
         <v>15.5</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
         <v>1.48</v>
@@ -1357,10 +1357,10 @@
         <v>5.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1387,7 +1387,7 @@
         <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
         <v>1.13</v>
@@ -1396,13 +1396,13 @@
         <v>3.05</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AA7" t="n">
         <v>240</v>
@@ -1417,7 +1417,7 @@
         <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1432,7 +1432,7 @@
         <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1480,13 +1480,13 @@
         <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>7.4</v>
       </c>
       <c r="I8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1531,10 +1531,10 @@
         <v>2.36</v>
       </c>
       <c r="X8" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,13 +1543,13 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1561,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1630,7 +1630,7 @@
         <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1672,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,19 +1681,19 @@
         <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
@@ -1705,16 +1705,16 @@
         <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="G10" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I10" t="n">
         <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.33</v>
@@ -1777,7 +1777,7 @@
         <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" t="n">
         <v>1.83</v>
@@ -1786,25 +1786,25 @@
         <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
@@ -1813,34 +1813,34 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="n">
         <v>980</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,7 +1885,7 @@
         <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
@@ -1894,7 +1894,7 @@
         <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>3.65</v>
@@ -1924,7 +1924,7 @@
         <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
         <v>2.04</v>
@@ -1933,7 +1933,7 @@
         <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
         <v>16</v>
@@ -1942,28 +1942,28 @@
         <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AB11" t="n">
         <v>10</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
@@ -1975,10 +1975,10 @@
         <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2029,13 +2029,13 @@
         <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2047,28 +2047,28 @@
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
         <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
         <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
@@ -2116,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
         <v>29</v>
@@ -2155,7 +2155,7 @@
         <v>1.95</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H13" t="n">
         <v>4.3</v>
@@ -2164,10 +2164,10 @@
         <v>4.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2182,7 +2182,7 @@
         <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
         <v>2.06</v>
@@ -2194,7 +2194,7 @@
         <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
         <v>1.92</v>
@@ -2203,58 +2203,58 @@
         <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X13" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH13" t="n">
         <v>990</v>
       </c>
-      <c r="Y13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.9</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -703,10 +703,10 @@
         <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
         <v>1.66</v>
@@ -715,10 +715,10 @@
         <v>2.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -727,7 +727,7 @@
         <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -754,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
         <v>60</v>
@@ -769,7 +769,7 @@
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
         <v>14</v>
@@ -826,7 +826,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O3" t="n">
         <v>1.31</v>
@@ -835,19 +835,19 @@
         <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
         <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
         <v>1.64</v>
@@ -856,7 +856,7 @@
         <v>1.42</v>
       </c>
       <c r="X3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>990</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="X4" t="n">
         <v>990</v>
       </c>
       <c r="Y4" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>990</v>
       </c>
       <c r="AC4" t="n">
-        <v>990</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
         <v>990</v>
@@ -1075,49 +1075,49 @@
         <v>1.35</v>
       </c>
       <c r="G5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.37</v>
       </c>
-      <c r="H5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.35</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V5" t="n">
         <v>1.06</v>
@@ -1126,7 +1126,7 @@
         <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
         <v>36</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>6.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1168,13 +1168,13 @@
         <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.3</v>
@@ -1240,7 +1240,7 @@
         <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
         <v>1.41</v>
@@ -1249,16 +1249,16 @@
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
         <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X6" t="n">
         <v>18</v>
@@ -1267,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H7" t="n">
         <v>7.2</v>
@@ -1393,10 +1393,10 @@
         <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X7" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="n">
         <v>980</v>
@@ -1480,10 +1480,10 @@
         <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
         <v>8.6</v>
@@ -1507,7 +1507,7 @@
         <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q8" t="n">
         <v>2.7</v>
@@ -1528,7 +1528,7 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="X8" t="n">
         <v>10.5</v>
@@ -1612,37 +1612,37 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="G9" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
         <v>2.08</v>
@@ -1660,13 +1660,13 @@
         <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
         <v>18</v>
@@ -1684,13 +1684,13 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
         <v>21</v>
@@ -1705,7 +1705,7 @@
         <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>150</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,16 +1750,16 @@
         <v>1.72</v>
       </c>
       <c r="G10" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
@@ -1780,13 +1780,13 @@
         <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
         <v>1.88</v>
@@ -1795,10 +1795,10 @@
         <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1816,7 +1816,7 @@
         <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
         <v>48</v>
@@ -1831,7 +1831,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,13 +1885,13 @@
         <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1915,7 +1915,7 @@
         <v>1.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>1.31</v>
@@ -1933,7 +1933,7 @@
         <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
         <v>16</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2047,19 +2047,19 @@
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
         <v>2.06</v>
@@ -2068,25 +2068,25 @@
         <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
         <v>28</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AB12" t="n">
         <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
         <v>18</v>
@@ -2098,13 +2098,13 @@
         <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
         <v>34</v>
@@ -2113,10 +2113,10 @@
         <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>29</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2179,13 +2179,13 @@
         <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
         <v>1.29</v>
@@ -2200,13 +2200,13 @@
         <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>30</v>
@@ -2221,7 +2221,7 @@
         <v>8.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>46</v>
@@ -2248,7 +2248,7 @@
         <v>75</v>
       </c>
       <c r="AL13" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
         <v>3.4</v>
       </c>
       <c r="H2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.26</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.28</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -685,46 +685,46 @@
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>15.5</v>
@@ -733,16 +733,16 @@
         <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>25</v>
@@ -751,19 +751,19 @@
         <v>13.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
         <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
         <v>70</v>
@@ -772,7 +772,7 @@
         <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I3" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -820,37 +820,37 @@
         <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.73</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W3" t="n">
         <v>1.42</v>
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I4" t="n">
         <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -985,31 +985,31 @@
         <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W4" t="n">
         <v>1.49</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
         <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1078,19 +1078,19 @@
         <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I5" t="n">
         <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1120,7 +1120,7 @@
         <v>1.56</v>
       </c>
       <c r="V5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W5" t="n">
         <v>3.75</v>
@@ -1213,7 +1213,7 @@
         <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
         <v>4.7</v>
@@ -1225,7 +1225,7 @@
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
         <v>2.18</v>
@@ -1267,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1276,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G7" t="n">
         <v>1.47</v>
       </c>
       <c r="H7" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I7" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7" t="n">
         <v>5.2</v>
@@ -1387,7 +1387,7 @@
         <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
         <v>1.13</v>
@@ -1399,7 +1399,7 @@
         <v>80</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
         <v>190</v>
@@ -1429,7 +1429,7 @@
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
@@ -1480,7 +1480,7 @@
         <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="H8" t="n">
         <v>7.2</v>
@@ -1489,13 +1489,13 @@
         <v>8.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.12</v>
@@ -1528,7 +1528,7 @@
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X8" t="n">
         <v>10.5</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G9" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
         <v>1.38</v>
@@ -1636,19 +1636,19 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
         <v>3.85</v>
@@ -1684,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF9" t="n">
         <v>24</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
         <v>1.79</v>
@@ -1789,10 +1789,10 @@
         <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
         <v>1.18</v>
@@ -1819,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
         <v>2.34</v>
@@ -1900,7 +1900,7 @@
         <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1924,13 +1924,13 @@
         <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U11" t="n">
         <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
         <v>1.74</v>
@@ -1957,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -2059,7 +2059,7 @@
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
         <v>2.06</v>
@@ -2122,7 +2122,7 @@
         <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2158,7 +2158,7 @@
         <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
         <v>4.6</v>
@@ -2200,7 +2200,7 @@
         <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
         <v>1.9</v>
@@ -2224,7 +2224,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="I2" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
         <v>2.54</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="W2" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -727,13 +727,13 @@
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
@@ -742,10 +742,10 @@
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
         <v>13.5</v>
@@ -757,10 +757,10 @@
         <v>30</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
         <v>38</v>
@@ -769,10 +769,10 @@
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="H3" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="I3" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -820,70 +820,70 @@
         <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.36</v>
       </c>
-      <c r="S3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.42</v>
-      </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -970,10 +970,10 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
@@ -982,19 +982,19 @@
         <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>23</v>
@@ -1006,19 +1006,19 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1081,46 +1081,46 @@
         <v>15.5</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="U5" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
         <v>3.75</v>
@@ -1141,10 +1141,10 @@
         <v>6.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>6.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1168,7 +1168,7 @@
         <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1225,34 +1225,34 @@
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
         <v>1.27</v>
@@ -1267,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1279,10 +1279,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1291,7 +1291,7 @@
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>250</v>
@@ -1360,10 +1360,10 @@
         <v>5.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
         <v>6.2</v>
@@ -1372,22 +1372,22 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="Q7" t="n">
         <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S7" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T7" t="n">
         <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="V7" t="n">
         <v>1.13</v>
@@ -1426,7 +1426,7 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>80</v>
@@ -1477,40 +1477,40 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="P8" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="R8" t="n">
         <v>1.16</v>
@@ -1519,16 +1519,16 @@
         <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="V8" t="n">
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X8" t="n">
         <v>10.5</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1558,10 +1558,10 @@
         <v>8.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1573,13 +1573,13 @@
         <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H9" t="n">
         <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X9" t="n">
         <v>24</v>
@@ -1684,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>480</v>
@@ -1750,55 +1750,55 @@
         <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.87</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.89</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1819,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1840,7 +1840,7 @@
         <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
         <v>980</v>
@@ -1885,13 +1885,13 @@
         <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1900,46 +1900,46 @@
         <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
         <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
         <v>48</v>
@@ -1948,7 +1948,7 @@
         <v>190</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
@@ -1957,10 +1957,10 @@
         <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2017,76 +2017,76 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.4</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.39</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>28</v>
       </c>
       <c r="AA12" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
         <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
         <v>18</v>
@@ -2104,25 +2104,25 @@
         <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
         <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2155,43 +2155,43 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H13" t="n">
         <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
         <v>1.86</v>
@@ -2203,7 +2203,7 @@
         <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
@@ -2236,13 +2236,13 @@
         <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AK13" t="n">
         <v>75</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -673,13 +673,13 @@
         <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I2" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
@@ -691,28 +691,28 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="V2" t="n">
         <v>1.72</v>
@@ -721,43 +721,43 @@
         <v>1.45</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
         <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK2" t="n">
         <v>32</v>
@@ -769,10 +769,10 @@
         <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,43 +802,43 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
         <v>3.55</v>
@@ -850,19 +850,19 @@
         <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -940,28 +940,28 @@
         <v>2.74</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="H4" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="I4" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -970,28 +970,28 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
         <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
         <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1000,7 +1000,7 @@
         <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
@@ -1009,19 +1009,19 @@
         <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1081,16 +1081,16 @@
         <v>15.5</v>
       </c>
       <c r="I5" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
         <v>4.9</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1099,25 +1099,25 @@
         <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="U5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V5" t="n">
         <v>1.06</v>
@@ -1138,19 +1138,19 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
@@ -1162,19 +1162,19 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK5" t="n">
         <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1216,7 +1216,7 @@
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.65</v>
@@ -1234,7 +1234,7 @@
         <v>4.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
         <v>2.08</v>
@@ -1246,28 +1246,28 @@
         <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
         <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
         <v>20</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1282,37 +1282,37 @@
         <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>250</v>
       </c>
       <c r="AJ6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>65</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
         <v>1.47</v>
@@ -1351,10 +1351,10 @@
         <v>7.6</v>
       </c>
       <c r="I7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
         <v>5.5</v>
@@ -1363,7 +1363,7 @@
         <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>6.2</v>
@@ -1375,10 +1375,10 @@
         <v>2.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
         <v>2.18</v>
@@ -1387,7 +1387,7 @@
         <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V7" t="n">
         <v>1.13</v>
@@ -1405,16 +1405,16 @@
         <v>190</v>
       </c>
       <c r="AA7" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB7" t="n">
         <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="n">
         <v>260</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
         <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.64</v>
@@ -1501,16 +1501,16 @@
         <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O8" t="n">
         <v>1.61</v>
       </c>
       <c r="P8" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="R8" t="n">
         <v>1.16</v>
@@ -1522,13 +1522,13 @@
         <v>2.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="V8" t="n">
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X8" t="n">
         <v>10.5</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H9" t="n">
         <v>5.1</v>
@@ -1624,43 +1624,43 @@
         <v>5.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
         <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
         <v>2.12</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
         <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
         <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
         <v>2.14</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I10" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.41</v>
@@ -1771,40 +1771,40 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
         <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.9</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
@@ -1816,7 +1816,7 @@
         <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
         <v>990</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
         <v>3.45</v>
@@ -1906,25 +1906,25 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
         <v>2.02</v>
@@ -1960,7 +1960,7 @@
         <v>200</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G12" t="n">
         <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
         <v>3.55</v>
@@ -2032,19 +2032,19 @@
         <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
         <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
         <v>1.67</v>
@@ -2059,25 +2059,25 @@
         <v>4.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y12" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
         <v>70</v>
@@ -2086,31 +2086,31 @@
         <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
         <v>55</v>
@@ -2119,10 +2119,10 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="n">
         <v>2.08</v>
@@ -2191,13 +2191,13 @@
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
         <v>1.27</v>
@@ -2218,13 +2218,13 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.6</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>990</v>
+        <v>46</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AK13" t="n">
         <v>75</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.32</v>
+        <v>1.39</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>5.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>2.46</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.72</v>
+        <v>3.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>5.7</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>410</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -835,61 +835,61 @@
         <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -898,16 +898,16 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,40 +937,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H4" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
         <v>1.43</v>
@@ -979,37 +979,37 @@
         <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="H5" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.08</v>
       </c>
-      <c r="N5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W5" t="n">
-        <v>3.75</v>
+        <v>2.92</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.95</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.02</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.38</v>
@@ -1231,88 +1231,88 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q6" t="n">
         <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
         <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK6" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
         <v>200</v>
       </c>
-      <c r="AF6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
       <c r="AN6" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -1354,7 +1354,7 @@
         <v>8.6</v>
       </c>
       <c r="J7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K7" t="n">
         <v>5.5</v>
@@ -1378,7 +1378,7 @@
         <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S7" t="n">
         <v>2.18</v>
@@ -1387,7 +1387,7 @@
         <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
         <v>1.13</v>
@@ -1420,7 +1420,7 @@
         <v>260</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
@@ -1435,7 +1435,7 @@
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL7" t="n">
         <v>32</v>
@@ -1444,7 +1444,7 @@
         <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO7" t="n">
         <v>80</v>
@@ -1477,64 +1477,64 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.64</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.61</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="R8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.16</v>
       </c>
-      <c r="S8" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.13</v>
-      </c>
       <c r="W8" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,43 +1543,43 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,37 +1615,37 @@
         <v>1.78</v>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
@@ -1654,7 +1654,7 @@
         <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
         <v>1.94</v>
@@ -1663,7 +1663,7 @@
         <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X9" t="n">
         <v>24</v>
@@ -1681,7 +1681,7 @@
         <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1690,7 +1690,7 @@
         <v>480</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>21</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
@@ -1747,64 +1747,64 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I10" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y10" t="n">
         <v>980</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
         <v>13</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK10" t="n">
         <v>65</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>3.45</v>
@@ -1900,34 +1900,34 @@
         <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
         <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
         <v>1.36</v>
@@ -1939,16 +1939,16 @@
         <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
         <v>48</v>
       </c>
       <c r="AA11" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.199999999999999</v>
@@ -1966,10 +1966,10 @@
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="AJ11" t="n">
         <v>32</v>
@@ -1978,16 +1978,16 @@
         <v>46</v>
       </c>
       <c r="AL11" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2017,82 +2017,82 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.55</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
       </c>
       <c r="K12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
         <v>3.3</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X12" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF12" t="n">
         <v>14.5</v>
@@ -2101,28 +2101,28 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO12" t="n">
         <v>55</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>2.08</v>
@@ -2161,10 +2161,10 @@
         <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>3.6</v>
@@ -2179,7 +2179,7 @@
         <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
         <v>1.79</v>
@@ -2191,10 +2191,10 @@
         <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="U13" t="n">
         <v>1.96</v>
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
         <v>8.199999999999999</v>
@@ -2230,7 +2230,7 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
         <v>20</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>09:05:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Auckland FC</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>1.39</v>
+        <v>2.16</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>5.4</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>3.5</v>
+        <v>1.76</v>
       </c>
       <c r="W2" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>9.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.7</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,96 +788,96 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:05:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.7</v>
       </c>
-      <c r="G3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -889,7 +889,7 @@
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -898,13 +898,13 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,114 +923,114 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>1.45</v>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>1.47</v>
       </c>
       <c r="H4" t="n">
-        <v>2.72</v>
+        <v>10.5</v>
       </c>
       <c r="I4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
         <v>2.96</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.95</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>2.48</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>1.56</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>3.05</v>
       </c>
       <c r="X4" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>1.96</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.34</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>2.92</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
         <v>140</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB5" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN5" t="n">
         <v>12.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="S6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W6" t="n">
         <v>3.15</v>
       </c>
-      <c r="T6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.06</v>
-      </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>12.5</v>
+        <v>5.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="G7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.47</v>
       </c>
-      <c r="H7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S7" t="n">
         <v>6.2</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.18</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>2.68</v>
       </c>
       <c r="U7" t="n">
-        <v>2.18</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
         <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>3.1</v>
+        <v>2.44</v>
       </c>
       <c r="X7" t="n">
-        <v>80</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="n">
-        <v>230</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>5.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.2</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,123 +1463,123 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.36</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.92</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.55</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
         <v>85</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>600</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="H9" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.79</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI9" t="n">
         <v>120</v>
       </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO9" t="n">
         <v>150</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1.74</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.65</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.06</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="W10" t="n">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="X10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="n">
         <v>27</v>
       </c>
-      <c r="Y10" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>980</v>
-      </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF10" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>22</v>
-      </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ10" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.41</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.31</v>
-      </c>
       <c r="P11" t="n">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="Q11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U11" t="n">
         <v>2</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD11" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AE11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL11" t="n">
         <v>48</v>
       </c>
-      <c r="AA11" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>100</v>
-      </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,260 +2003,125 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.4</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH12" t="n">
         <v>60</v>
       </c>
-      <c r="AB12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>19</v>
-      </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Torreense</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X13" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO13" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.45</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.85</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.76</v>
+        <v>1.1</v>
       </c>
       <c r="W2" t="n">
-        <v>1.36</v>
+        <v>2.76</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>4.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AN2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.7</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
-        <v>2.92</v>
+        <v>1.66</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>2.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.38</v>
       </c>
-      <c r="S3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.71</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>3.15</v>
       </c>
       <c r="V3" t="n">
-        <v>1.55</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>1.52</v>
+        <v>2.52</v>
       </c>
       <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK3" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>1.45</v>
       </c>
       <c r="G4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.48</v>
@@ -961,37 +961,37 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="U4" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="V4" t="n">
         <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>26</v>
@@ -1006,10 +1006,10 @@
         <v>6.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,10 +1030,10 @@
         <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
         <v>1.28</v>
@@ -1126,22 +1126,22 @@
         <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
         <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
         <v>17.5</v>
@@ -1150,19 +1150,19 @@
         <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
         <v>19.5</v>
@@ -1171,13 +1171,13 @@
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="H6" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K6" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.27</v>
@@ -1234,85 +1234,85 @@
         <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="X6" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y6" t="n">
         <v>34</v>
       </c>
-      <c r="Y6" t="n">
-        <v>38</v>
-      </c>
       <c r="Z6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.63</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.65</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="O7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="R7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.44</v>
+        <v>2.74</v>
       </c>
       <c r="X7" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>640</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8">
@@ -1480,16 +1480,16 @@
         <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
         <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1501,13 +1501,13 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
         <v>2.06</v>
@@ -1516,19 +1516,19 @@
         <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
         <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X8" t="n">
         <v>24</v>
@@ -1537,13 +1537,13 @@
         <v>18</v>
       </c>
       <c r="Z8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
@@ -1561,7 +1561,7 @@
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1573,7 +1573,7 @@
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.7</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.76</v>
-      </c>
       <c r="H9" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1636,88 +1636,88 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
         <v>7.4</v>
       </c>
       <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF9" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.6</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
         <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>3.65</v>
@@ -1771,7 +1771,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1780,55 +1780,55 @@
         <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T10" t="n">
         <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W10" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>16</v>
-      </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
@@ -1837,22 +1837,22 @@
         <v>330</v>
       </c>
       <c r="AJ10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>390</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO10" t="n">
         <v>80</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
         <v>3.35</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
         <v>3.35</v>
@@ -1909,31 +1909,31 @@
         <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q11" t="n">
         <v>2.26</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X11" t="n">
         <v>11</v>
@@ -1948,10 +1948,10 @@
         <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
         <v>14.5</v>
@@ -1972,22 +1972,22 @@
         <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>4.2</v>
@@ -2029,7 +2029,7 @@
         <v>4.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
         <v>3.55</v>
@@ -2038,91 +2038,91 @@
         <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
         <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
         <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
         <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:05:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="H2" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="P2" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="R2" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>2.6</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>1.52</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.9</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>340</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.2</v>
       </c>
-      <c r="K3" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.76</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2.64</v>
+        <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.38</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>3.15</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
         <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
         <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB4" t="n">
         <v>13</v>
       </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG4" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
       <c r="AH4" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>5.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.41</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>2.04</v>
+        <v>2.8</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>4.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>630</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>60</v>
-      </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>2.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>2.24</v>
+        <v>3.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.72</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD6" t="n">
         <v>60</v>
       </c>
-      <c r="AA6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
+        <v>480</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI6" t="n">
         <v>1000</v>
       </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="n">
         <v>65</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="n">
         <v>1000</v>
       </c>
-      <c r="AK6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>580</v>
-      </c>
       <c r="AN6" t="n">
-        <v>7.6</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.48</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.84</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>2.88</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="W7" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="X7" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.1</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>50</v>
+        <v>990</v>
       </c>
       <c r="AE7" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>480</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>970</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="G8" t="n">
-        <v>1.82</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>2.18</v>
+        <v>1.72</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL8" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>2.62</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.43</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.16</v>
-      </c>
       <c r="W9" t="n">
-        <v>2.42</v>
+        <v>1.61</v>
       </c>
       <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
       <c r="AH9" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM9" t="n">
         <v>130</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN9" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,396 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
         <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="n">
-        <v>440</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>390</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>French Ligue 2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Montpellier</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Dunkerque</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Torreense</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="G2" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>11.5</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.49</v>
+        <v>2.6</v>
       </c>
       <c r="M2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.1</v>
       </c>
-      <c r="N2" t="n">
+      <c r="S2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="T2" t="n">
         <v>3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>1.45</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.52</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>3.1</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="G3" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>1.39</v>
@@ -826,46 +826,46 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
         <v>3.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AB3" t="n">
         <v>9.4</v>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -886,28 +886,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
         <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,40 +937,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
         <v>1.79</v>
@@ -979,70 +979,70 @@
         <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G5" t="n">
         <v>1.55</v>
@@ -1096,55 +1096,55 @@
         <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="O5" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
         <v>6.8</v>
       </c>
       <c r="T5" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
         <v>2.8</v>
       </c>
       <c r="X5" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1159,19 +1159,19 @@
         <v>65</v>
       </c>
       <c r="AI5" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="AJ5" t="n">
         <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="AN5" t="n">
         <v>17.5</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.47</v>
@@ -1234,82 +1234,82 @@
         <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
         <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H7" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
         <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
         <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X7" t="n">
         <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
         <v>200</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="AO7" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
         <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -1501,88 +1501,88 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
         <v>1.72</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.54</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.62</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
@@ -1630,76 +1630,76 @@
         <v>3.35</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AB9" t="n">
         <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
         <v>38</v>
@@ -1708,16 +1708,16 @@
         <v>32</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AO9" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="n">
         <v>4.5</v>
@@ -1762,7 +1762,7 @@
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>1.46</v>
@@ -1774,22 +1774,22 @@
         <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
         <v>2.14</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AA10" t="n">
         <v>110</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>65</v>
@@ -1837,22 +1837,22 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q2" t="n">
         <v>6.8</v>
       </c>
-      <c r="I2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.75</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="S2" t="n">
-        <v>9.800000000000001</v>
+        <v>28</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="X2" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>490</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>100</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.96</v>
+        <v>1.07</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1.09</v>
       </c>
       <c r="H3" t="n">
+        <v>55</v>
+      </c>
+      <c r="I3" t="n">
+        <v>990</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W3" t="n">
+        <v>12</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>650</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>15.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="G4" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="N4" t="n">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.87</v>
       </c>
       <c r="P4" t="n">
-        <v>2.92</v>
+        <v>1.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.47</v>
+        <v>3.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.79</v>
+        <v>1.1</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>1.36</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.96</v>
+        <v>2.44</v>
       </c>
       <c r="X4" t="n">
-        <v>40</v>
+        <v>6.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>4.3</v>
       </c>
       <c r="AC4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>620</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK4" t="n">
         <v>42</v>
       </c>
-      <c r="AD4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.4</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5.4</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>1.43</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.8</v>
+        <v>2.22</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>620</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>870</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="G6" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
         <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD6" t="n">
         <v>29</v>
       </c>
-      <c r="AC6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>85</v>
+        <v>11.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.2</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="W8" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>42</v>
       </c>
-      <c r="AD8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>980</v>
-      </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI8" t="n">
         <v>60</v>
       </c>
-      <c r="AI8" t="n">
-        <v>330</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>600</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,261 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.52</v>
+        <v>1.99</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF9" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AG9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>20</v>
-      </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Torreense</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="X10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Monopoli</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.18</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>110</v>
       </c>
       <c r="H2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K2" t="n">
         <v>6</v>
       </c>
-      <c r="I2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.6</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="O2" t="n">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.8</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="T2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>4.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.199999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>490</v>
+        <v>960</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AH2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Crotone</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.07</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.09</v>
-      </c>
       <c r="H3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I3" t="n">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="J3" t="n">
         <v>13.5</v>
       </c>
       <c r="K3" t="n">
-        <v>18.5</v>
+        <v>100</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.68</v>
+        <v>1.41</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>3.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>2.76</v>
+        <v>46</v>
       </c>
       <c r="T3" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>1.27</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,43 +868,43 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>650</v>
+        <v>1.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="AL3" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.63</v>
+        <v>310</v>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>1.09</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>27</v>
       </c>
       <c r="L4" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>13.5</v>
       </c>
       <c r="W4" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>65</v>
+        <v>1.13</v>
       </c>
       <c r="AE4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monopoli</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>680</v>
       </c>
       <c r="G5" t="n">
-        <v>1.81</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>370</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="S5" t="n">
-        <v>3.8</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.29</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>100</v>
       </c>
       <c r="W5" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>1.76</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,531 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Crotone</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.59</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q6" t="n">
         <v>7</v>
       </c>
-      <c r="I6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S6" t="n">
+        <v>29</v>
+      </c>
+      <c r="T6" t="n">
         <v>4.2</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.08</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.26</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>2.6</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>3.65</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Triestina</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ASD Alcione</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>French Ligue 2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Montpellier</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Dunkerque</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portuguese Segunda Liga</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Torreense</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
